--- a/vignettes/Alameda-May4-v6.xlsx
+++ b/vignettes/Alameda-May4-v6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/vignettes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B85563-B262-E64B-8B09-472BE5D1EB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D26253E-2901-9B42-A4D4-0CC912152D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2020" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
   </si>
   <si>
-    <t>Best Guess</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Estimates can be the same in some/all columns</t>
   </si>
   <si>
-    <t>hide this?</t>
-  </si>
-  <si>
     <t xml:space="preserve">illness.length.given.nonhosp </t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>required.in.bounds</t>
   </si>
   <si>
-    <t>LB uses 75% for MO</t>
-  </si>
-  <si>
     <t>add.timestamp.to.filestr</t>
   </si>
   <si>
@@ -286,6 +277,39 @@
   </si>
   <si>
     <t>Projection Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This column will be used for the "User's Prior Projection". </t>
+  </si>
+  <si>
+    <t>plot.observed.data.long.term</t>
+  </si>
+  <si>
+    <t>plot.observed.data.short.term</t>
+  </si>
+  <si>
+    <t>lower.bound.label</t>
+  </si>
+  <si>
+    <t>upper.bound.label</t>
+  </si>
+  <si>
+    <t>Confirmed COVID19</t>
+  </si>
+  <si>
+    <t>Probable COVID19</t>
+  </si>
+  <si>
+    <t>For San Francisco, "Confirmed COVID19 + 30%PUI"</t>
+  </si>
+  <si>
+    <t>User's "Best Guess"</t>
+  </si>
+  <si>
+    <t>see FAQ</t>
+  </si>
+  <si>
+    <t>see FAQ on localepi.github.io/LEMMA</t>
   </si>
 </sst>
 </file>
@@ -386,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +453,12 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -748,63 +778,64 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="7" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="62.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="E2" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5">
         <v>0.05</v>
@@ -822,15 +853,15 @@
         <v>0.05</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>2.5</v>
@@ -850,7 +881,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -873,7 +904,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -896,7 +927,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -919,7 +950,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -942,7 +973,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -965,7 +996,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -988,7 +1019,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1011,33 +1042,33 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="D12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4">
         <v>0.4</v>
@@ -1046,7 +1077,7 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="4">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="4">
         <v>0.8</v>
@@ -1055,15 +1086,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -1083,36 +1114,36 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="D15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="E15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="F15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="G15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4">
         <v>0.3</v>
@@ -1121,7 +1152,7 @@
         <v>0.4</v>
       </c>
       <c r="E16" s="4">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F16" s="4">
         <v>0.8</v>
@@ -1130,15 +1161,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1158,10 +1189,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6">
         <v>43983</v>
@@ -1181,10 +1212,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4">
         <v>1.1000000000000001</v>
@@ -1202,15 +1233,15 @@
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -1230,10 +1261,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="b">
         <v>0</v>
@@ -1250,16 +1281,13 @@
       <c r="G21" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>0</v>
@@ -1276,13 +1304,15 @@
       <c r="G22" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1297,7 +1327,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1362,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,21 +1373,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9">
         <v>1671000</v>
@@ -1365,10 +1395,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6">
         <v>43905</v>
@@ -1376,13 +1406,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10">
-        <v>43952</v>
+        <v>44013</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1436,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,16 +1448,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,7 +1471,7 @@
         <v>59.665691555123601</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1812,24 +1842,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
@@ -1837,29 +1867,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
         <v>0.01</v>
@@ -1867,7 +1897,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4">
         <v>12345</v>
@@ -1875,16 +1905,16 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>0</v>
@@ -1892,27 +1922,27 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="11">
         <v>43931</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1920,7 +1950,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12">
         <v>43853</v>
@@ -1928,46 +1958,84 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>0.9</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4">
         <v>1.1000000000000001</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7D54BBB7-AF7C-3841-89CF-D6BEAE84ECD4}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
@@ -2000,6 +2068,7 @@
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{02B9A53E-37A4-BD4D-B8DA-FF61CA0402D8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2009,7 +2078,7 @@
           <x14:formula1>
             <xm:f>'Parameters with Distributions'!$A$27:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>B16 B8</xm:sqref>
+          <xm:sqref>B8 B16:B18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
